--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3090.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3090.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.294709329093488</v>
+        <v>1.272420883178711</v>
       </c>
       <c r="B1">
-        <v>2.697469878935459</v>
+        <v>2.406774997711182</v>
       </c>
       <c r="C1">
-        <v>3.539139105954843</v>
+        <v>4.486362457275391</v>
       </c>
       <c r="D1">
-        <v>4.173176103942677</v>
+        <v>2.666439294815063</v>
       </c>
       <c r="E1">
-        <v>1.362879348847718</v>
+        <v>1.338737010955811</v>
       </c>
     </row>
   </sheetData>
